--- a/src/Presentation/CTM.Win/DataTemplate/Delivery/CaiTong_C.xlsx
+++ b/src/Presentation/CTM.Win/DataTemplate/Delivery/CaiTong_C.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHubRepo\CTM\CTM.Win\DataImportTemplate\Delivery\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Source\ncCTM\src\Presentation\CTM.Win\DataTemplate\Delivery\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -51,16 +51,10 @@
     <t>合同编号</t>
   </si>
   <si>
-    <t>股东帐户</t>
-  </si>
-  <si>
     <t>委托日期</t>
   </si>
   <si>
     <t>可用余额</t>
-  </si>
-  <si>
-    <t>其他杂费</t>
   </si>
   <si>
     <t>佣金</t>
@@ -94,6 +88,14 @@
   </si>
   <si>
     <t>目标</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他杂费</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>股东帐户</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1015,7 +1017,7 @@
   <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1052,25 +1054,25 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
       <c r="Q1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
@@ -1078,10 +1080,10 @@
         <v>600149</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D2">
         <v>12.63</v>
@@ -1105,7 +1107,7 @@
         <v>8</v>
       </c>
       <c r="K2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L2">
         <v>20160401</v>
@@ -1123,7 +1125,7 @@
         <v>8192738.1500000004</v>
       </c>
       <c r="Q2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
@@ -1131,10 +1133,10 @@
         <v>600149</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D3">
         <v>12.6</v>
@@ -1158,7 +1160,7 @@
         <v>22</v>
       </c>
       <c r="K3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L3">
         <v>20160401</v>
@@ -1176,7 +1178,7 @@
         <v>8037711.6600000001</v>
       </c>
       <c r="Q3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
@@ -1184,10 +1186,10 @@
         <v>603600</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D4">
         <v>49.66</v>
@@ -1211,7 +1213,7 @@
         <v>48</v>
       </c>
       <c r="K4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L4">
         <v>20160401</v>
@@ -1229,7 +1231,7 @@
         <v>7789337.1699999999</v>
       </c>
       <c r="Q4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
